--- a/spliced/falling/2023-03-25_17-55-03/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-03/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07155208508758019</v>
+        <v>-0.2070114476715818</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2245558552882243</v>
+        <v>-0.2780065764399136</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4292945370954624</v>
+        <v>0.06705144135391006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1078356833142392</v>
+        <v>-0.1988007093177122</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8893119719098612</v>
+        <v>-0.2540031636462492</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.072796183473925</v>
+        <v>0.1641969842945828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.816982678192506</v>
+        <v>-0.1353515688987338</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.008071380503042</v>
+        <v>-0.4769509890500239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8789362977532822</v>
+        <v>-0.3330293473075421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.383951094220667</v>
+        <v>0.07155208508758019</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.028157809201409</v>
+        <v>-0.2245558552882243</v>
       </c>
       <c r="C5" t="n">
-        <v>1.267195065231885</v>
+        <v>-0.4292945370954624</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002641097587697622</v>
+        <v>0.1078356833142392</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.226918234544642</v>
+        <v>0.8893119719098612</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.07311518577968376</v>
+        <v>-1.072796183473925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.05739438621436738</v>
+        <v>-1.816982678192506</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3178565677474474</v>
+        <v>-1.008071380503042</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06782400783370307</v>
+        <v>0.8789362977532822</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2211421999861219</v>
+        <v>-1.383951094220667</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7606080525061673</v>
+        <v>-3.028157809201409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2932871878147121</v>
+        <v>1.267195065231885</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3466929775827071</v>
+        <v>0.002641097587697622</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7421204044538386</v>
+        <v>-2.226918234544642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1334111686138545</v>
+        <v>-0.07311518577968376</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2910682962221251</v>
+        <v>-0.05739438621436738</v>
       </c>
       <c r="B10" t="n">
-        <v>0.156192847911047</v>
+        <v>-0.3178565677474474</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1568216826109338</v>
+        <v>-0.06782400783370307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1602263630313032</v>
+        <v>0.2211421999861219</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2674691440428005</v>
+        <v>0.7606080525061673</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3133019923287284</v>
+        <v>0.2932871878147121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1037392944974057</v>
+        <v>0.3466929775827071</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2239000806037117</v>
+        <v>0.7421204044538386</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09252812099807395</v>
+        <v>0.1334111686138545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.03922114302130365</v>
+        <v>0.2910682962221251</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.123502580558556</v>
+        <v>0.156192847911047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1697846116388542</v>
+        <v>-0.1568216826109338</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1511891484260559</v>
+        <v>0.1602263630313032</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.7874053120613098</v>
+        <v>-0.2674691440428005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1252273768186569</v>
+        <v>-0.3133019923287284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2799739171476926</v>
+        <v>0.1037392944974057</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2619174543549031</v>
+        <v>-0.2239000806037117</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.07211803425760829</v>
+        <v>0.09252812099807395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1397983098731321</v>
+        <v>-0.03922114302130365</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09243828934781689</v>
+        <v>-0.123502580558556</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1799896464628332</v>
+        <v>0.1697846116388542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.07766972043935011</v>
+        <v>-0.1511891484260559</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3104992018026466</v>
+        <v>-0.7874053120613098</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01793069436269673</v>
+        <v>0.1252273768186569</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.03116311123320704</v>
+        <v>-0.2799739171476926</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03599612940760172</v>
+        <v>-0.2619174543549031</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02217979816829464</v>
+        <v>-0.07211803425760829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.009441461181268051</v>
+        <v>-0.1397983098731321</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03861925794797785</v>
+        <v>0.09243828934781689</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04366788180435401</v>
+        <v>-0.1799896464628332</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.007752598523545713</v>
+        <v>0.07766972043935011</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.002497362959034508</v>
+        <v>0.3104992018026466</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.003449591643669939</v>
+        <v>0.01793069436269673</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.001572079586741661</v>
+        <v>0.03116311123320704</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.006917151677257739</v>
+        <v>0.03599612940760172</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02342847888084016</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.01051945869317818</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.04676712304353709</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.01480449977166512</v>
+        <v>-0.02217979816829464</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-03/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-03/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2070114476715818</v>
+        <v>-0.007375299738829639</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2780065764399136</v>
+        <v>-0.04188020327402392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06705144135391006</v>
+        <v>0.02404832670136416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1988007093177122</v>
+        <v>0.009710959871025781</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2540031636462492</v>
+        <v>-0.04103577224647274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1641969842945828</v>
+        <v>-0.004662338863401103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1353515688987338</v>
+        <v>0.04170951860792497</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4769509890500239</v>
+        <v>0.04793495536946196</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3330293473075421</v>
+        <v>-0.07793023174299907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.07155208508758019</v>
+        <v>-0.02235946409842538</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2245558552882243</v>
+        <v>-0.01261257046066655</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4292945370954624</v>
+        <v>0.04359601744834121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1078356833142392</v>
+        <v>-0.03681361302733401</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8893119719098612</v>
+        <v>-0.006297301829737623</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.072796183473925</v>
+        <v>-0.01943090470398167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.816982678192506</v>
+        <v>0.02995036389021311</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.008071380503042</v>
+        <v>0.01477754981640481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8789362977532822</v>
+        <v>-0.02054483487325551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.383951094220667</v>
+        <v>0.04258089907029088</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.028157809201409</v>
+        <v>-0.09914881779867053</v>
       </c>
       <c r="C8" t="n">
-        <v>1.267195065231885</v>
+        <v>-0.03582545123336939</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002641097587697622</v>
+        <v>0.0959058403968811</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.226918234544642</v>
+        <v>-0.1950187236070633</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07311518577968376</v>
+        <v>0.0042760567739605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.05739438621436738</v>
+        <v>-0.04207783586838668</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3178565677474474</v>
+        <v>-0.3005187625394148</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06782400783370307</v>
+        <v>0.05587620359352399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2211421999861219</v>
+        <v>-0.2070114476715818</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7606080525061673</v>
+        <v>-0.2780065764399136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2932871878147121</v>
+        <v>0.06705144135391006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3466929775827071</v>
+        <v>-0.1988007093177122</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7421204044538386</v>
+        <v>-0.2540031636462492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1334111686138545</v>
+        <v>0.1641969842945828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2910682962221251</v>
+        <v>-0.1353515688987338</v>
       </c>
       <c r="B13" t="n">
-        <v>0.156192847911047</v>
+        <v>-0.4769509890500239</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1568216826109338</v>
+        <v>-0.3330293473075421</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1602263630313032</v>
+        <v>0.07155208508758019</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2674691440428005</v>
+        <v>-0.2245558552882243</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3133019923287284</v>
+        <v>-0.4292945370954624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1037392944974057</v>
+        <v>0.1078356833142392</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2239000806037117</v>
+        <v>0.8893119719098612</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09252812099807395</v>
+        <v>-1.072796183473925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.03922114302130365</v>
+        <v>-1.816982678192506</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.123502580558556</v>
+        <v>-1.008071380503042</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1697846116388542</v>
+        <v>0.8789362977532822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1511891484260559</v>
+        <v>-1.383951094220667</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7874053120613098</v>
+        <v>-3.028157809201409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1252273768186569</v>
+        <v>1.267195065231885</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2799739171476926</v>
+        <v>0.002641097587697622</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2619174543549031</v>
+        <v>-2.226918234544642</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07211803425760829</v>
+        <v>-0.07311518577968376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1397983098731321</v>
+        <v>-0.05739438621436738</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09243828934781689</v>
+        <v>-0.3178565677474474</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1799896464628332</v>
+        <v>-0.06782400783370307</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.07766972043935011</v>
+        <v>0.2211421999861219</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3104992018026466</v>
+        <v>0.7606080525061673</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01793069436269673</v>
+        <v>0.2932871878147121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.3466929775827071</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7421204044538386</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1334111686138545</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.2910682962221251</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.156192847911047</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1568216826109338</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1602263630313032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2674691440428005</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3133019923287284</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.1037392944974057</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2239000806037117</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09252812099807395</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.03922114302130365</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.123502580558556</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1697846116388542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1511891484260559</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.7874053120613098</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1252273768186569</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2799739171476926</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2619174543549031</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.07211803425760829</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1397983098731321</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.09243828934781689</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1799896464628332</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.07766972043935011</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3104992018026466</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01793069436269673</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.03116311123320704</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>0.03599612940760172</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>-0.02217979816829464</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.009441461181268051</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.03861925794797785</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.04366788180435401</v>
       </c>
     </row>
   </sheetData>
